--- a/publication/analyses/outputs/supfigs/idpt_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/idpt_rmse-z_by_c-min.xlsx
@@ -485,7 +485,7 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0146132527084908</v>
+        <v>81.01587301587301</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0146132527084908</v>
+        <v>81.01587301587301</v>
       </c>
     </row>
     <row r="4">
@@ -531,7 +531,7 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0146132527084908</v>
+        <v>81.01587301587301</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0146132527084908</v>
+        <v>81.01587301587301</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0146132527084908</v>
+        <v>81.01587301587301</v>
       </c>
     </row>
     <row r="7">
@@ -600,7 +600,7 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0146132527084908</v>
+        <v>81.01587301587301</v>
       </c>
     </row>
     <row r="8">
@@ -623,7 +623,7 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0146132527084908</v>
+        <v>81.01587301587301</v>
       </c>
     </row>
     <row r="9">
@@ -646,7 +646,7 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0146132527084908</v>
+        <v>81.01587301587301</v>
       </c>
     </row>
     <row r="10">
@@ -669,7 +669,7 @@
         <v>0.9206349206349206</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0146132527084908</v>
+        <v>81.01587301587301</v>
       </c>
     </row>
     <row r="11">
@@ -683,7 +683,7 @@
         <v>0.380173048799206</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174124598577119</v>
       </c>
       <c r="E11" t="n">
         <v>5103</v>
@@ -692,7 +692,7 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01461038961038961</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -706,7 +706,7 @@
         <v>0.3792869748338641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5161807417094764</v>
       </c>
       <c r="E12" t="n">
         <v>5101</v>
@@ -715,7 +715,7 @@
         <v>0.9200937950937951</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01460466341418722</v>
+        <v>80.96825396825396</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         <v>0.3792869748338641</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5161807417094764</v>
       </c>
       <c r="E13" t="n">
         <v>5101</v>
@@ -738,7 +738,7 @@
         <v>0.9200937950937951</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01460466341418722</v>
+        <v>80.96825396825396</v>
       </c>
     </row>
     <row r="14">
@@ -752,7 +752,7 @@
         <v>0.3792869748338641</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5161807417094764</v>
       </c>
       <c r="E14" t="n">
         <v>5101</v>
@@ -761,7 +761,7 @@
         <v>0.9200937950937951</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01460466341418722</v>
+        <v>80.96825396825396</v>
       </c>
     </row>
     <row r="15">
@@ -775,7 +775,7 @@
         <v>0.3792869748338641</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5161807417094764</v>
       </c>
       <c r="E15" t="n">
         <v>5101</v>
@@ -784,7 +784,7 @@
         <v>0.9200937950937951</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01460466341418722</v>
+        <v>80.96825396825396</v>
       </c>
     </row>
     <row r="16">
@@ -798,7 +798,7 @@
         <v>0.3792869748338641</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5161807417094764</v>
       </c>
       <c r="E16" t="n">
         <v>5101</v>
@@ -807,7 +807,7 @@
         <v>0.9200937950937951</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01460466341418722</v>
+        <v>80.96825396825396</v>
       </c>
     </row>
     <row r="17">
@@ -821,7 +821,7 @@
         <v>0.3792869748338641</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5161807417094764</v>
       </c>
       <c r="E17" t="n">
         <v>5101</v>
@@ -830,7 +830,7 @@
         <v>0.9200937950937951</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01460466341418722</v>
+        <v>80.96825396825396</v>
       </c>
     </row>
     <row r="18">
@@ -844,7 +844,7 @@
         <v>0.3786009627302689</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5152274224425172</v>
       </c>
       <c r="E18" t="n">
         <v>5098</v>
@@ -853,7 +853,7 @@
         <v>0.9195526695526696</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01459607411988364</v>
+        <v>80.92063492063492</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
         <v>0.3786009627302689</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5152274224425172</v>
       </c>
       <c r="E19" t="n">
         <v>5098</v>
@@ -876,7 +876,7 @@
         <v>0.9195526695526696</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01459607411988364</v>
+        <v>80.92063492063492</v>
       </c>
     </row>
     <row r="20">
@@ -890,7 +890,7 @@
         <v>0.3778264268548475</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5141847639893176</v>
       </c>
       <c r="E20" t="n">
         <v>5094</v>
@@ -899,7 +899,7 @@
         <v>0.9188311688311688</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01458462172747887</v>
+        <v>80.85714285714286</v>
       </c>
     </row>
     <row r="21">
@@ -913,7 +913,7 @@
         <v>0.3774440937474211</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5136714286906973</v>
       </c>
       <c r="E21" t="n">
         <v>5091</v>
@@ -922,7 +922,7 @@
         <v>0.9182900432900433</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01457603243317529</v>
+        <v>80.80952380952381</v>
       </c>
     </row>
     <row r="22">
@@ -936,7 +936,7 @@
         <v>0.3774247909609283</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5135967960445158</v>
       </c>
       <c r="E22" t="n">
         <v>5088</v>
@@ -945,7 +945,7 @@
         <v>0.9177489177489178</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01456744313887171</v>
+        <v>80.76190476190476</v>
       </c>
     </row>
     <row r="23">
@@ -959,7 +959,7 @@
         <v>0.3774698822524733</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.513614710902777</v>
       </c>
       <c r="E23" t="n">
         <v>5086</v>
@@ -968,7 +968,7 @@
         <v>0.9173881673881674</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01456171694266932</v>
+        <v>80.73015873015873</v>
       </c>
     </row>
     <row r="24">
@@ -982,7 +982,7 @@
         <v>0.3774156515250173</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5134998964503081</v>
       </c>
       <c r="E24" t="n">
         <v>5083</v>
@@ -991,7 +991,7 @@
         <v>0.9168470418470418</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01455312764836574</v>
+        <v>80.68253968253968</v>
       </c>
     </row>
     <row r="25">
@@ -1005,7 +1005,7 @@
         <v>0.3769494246085013</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5129417063919948</v>
       </c>
       <c r="E25" t="n">
         <v>5077</v>
@@ -1014,7 +1014,7 @@
         <v>0.9157647907647908</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01453594905975858</v>
+        <v>80.58730158730158</v>
       </c>
     </row>
     <row r="26">
@@ -1028,7 +1028,7 @@
         <v>0.3762563412657434</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5121013756995278</v>
       </c>
       <c r="E26" t="n">
         <v>5071</v>
@@ -1037,7 +1037,7 @@
         <v>0.9146825396825397</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01451877047115142</v>
+        <v>80.49206349206349</v>
       </c>
     </row>
     <row r="27">
@@ -1051,7 +1051,7 @@
         <v>0.3762721413407292</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5118789027780003</v>
       </c>
       <c r="E27" t="n">
         <v>5060</v>
@@ -1060,7 +1060,7 @@
         <v>0.9126984126984127</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0144872763920383</v>
+        <v>80.31746031746032</v>
       </c>
     </row>
     <row r="28">
@@ -1074,7 +1074,7 @@
         <v>0.3738655405574646</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5091293873233976</v>
       </c>
       <c r="E28" t="n">
         <v>5047</v>
@@ -1083,7 +1083,7 @@
         <v>0.9103535353535354</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01445005611672278</v>
+        <v>80.11111111111111</v>
       </c>
     </row>
     <row r="29">
@@ -1097,7 +1097,7 @@
         <v>0.3736297713153195</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5088898849734458</v>
       </c>
       <c r="E29" t="n">
         <v>5043</v>
@@ -1106,7 +1106,7 @@
         <v>0.9096320346320347</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01443860372431801</v>
+        <v>80.04761904761905</v>
       </c>
     </row>
     <row r="30">
@@ -1120,7 +1120,7 @@
         <v>0.3722937492506164</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5076022467249167</v>
       </c>
       <c r="E30" t="n">
         <v>5027</v>
@@ -1129,7 +1129,7 @@
         <v>0.9067460317460317</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01439279415469892</v>
+        <v>79.7936507936508</v>
       </c>
     </row>
     <row r="31">
@@ -1143,7 +1143,7 @@
         <v>0.3714874115302282</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5069011502526382</v>
       </c>
       <c r="E31" t="n">
         <v>5009</v>
@@ -1152,7 +1152,7 @@
         <v>0.9034992784992785</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01434125838887744</v>
+        <v>79.50793650793651</v>
       </c>
     </row>
     <row r="32">
@@ -1166,7 +1166,7 @@
         <v>0.3711444926008454</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5062890186272081</v>
       </c>
       <c r="E32" t="n">
         <v>4979</v>
@@ -1175,7 +1175,7 @@
         <v>0.898088023088023</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01425536544584164</v>
+        <v>79.03174603174604</v>
       </c>
     </row>
     <row r="33">
@@ -1189,7 +1189,7 @@
         <v>0.3697392001478965</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.504221301073956</v>
       </c>
       <c r="E33" t="n">
         <v>4951</v>
@@ -1198,7 +1198,7 @@
         <v>0.8930375180375181</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01417519869900822</v>
+        <v>78.58730158730158</v>
       </c>
     </row>
     <row r="34">
@@ -1212,7 +1212,7 @@
         <v>0.3693493175752633</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5036122993922157</v>
       </c>
       <c r="E34" t="n">
         <v>4925</v>
@@ -1221,7 +1221,7 @@
         <v>0.8883477633477633</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0141007581483772</v>
+        <v>78.17460317460318</v>
       </c>
     </row>
     <row r="35">
@@ -1235,7 +1235,7 @@
         <v>0.367323178476183</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5016961756989567</v>
       </c>
       <c r="E35" t="n">
         <v>4888</v>
@@ -1244,7 +1244,7 @@
         <v>0.8816738816738817</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01399482351863304</v>
+        <v>77.58730158730158</v>
       </c>
     </row>
     <row r="36">
@@ -1258,7 +1258,7 @@
         <v>0.3656661090295736</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5001333506558113</v>
       </c>
       <c r="E36" t="n">
         <v>4850</v>
@@ -1267,7 +1267,7 @@
         <v>0.8748196248196248</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0138860257907877</v>
+        <v>76.98412698412699</v>
       </c>
     </row>
     <row r="37">
@@ -1281,7 +1281,7 @@
         <v>0.3639751759082663</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.4987946814064388</v>
       </c>
       <c r="E37" t="n">
         <v>4802</v>
@@ -1290,7 +1290,7 @@
         <v>0.8661616161616161</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01374859708193042</v>
+        <v>76.22222222222223</v>
       </c>
     </row>
     <row r="38">
@@ -1304,7 +1304,7 @@
         <v>0.3619806647227288</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.4974823021793375</v>
       </c>
       <c r="E38" t="n">
         <v>4756</v>
@@ -1313,7 +1313,7 @@
         <v>0.8578643578643579</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01361689456927552</v>
+        <v>75.49206349206349</v>
       </c>
     </row>
     <row r="39">
@@ -1327,7 +1327,7 @@
         <v>0.3594754602026789</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.4962179496825814</v>
       </c>
       <c r="E39" t="n">
         <v>4692</v>
@@ -1336,7 +1336,7 @@
         <v>0.8463203463203464</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01343365629079915</v>
+        <v>74.47619047619048</v>
       </c>
     </row>
     <row r="40">
@@ -1350,7 +1350,7 @@
         <v>0.3595740578198174</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.4968859731646126</v>
       </c>
       <c r="E40" t="n">
         <v>4642</v>
@@ -1359,7 +1359,7 @@
         <v>0.8373015873015873</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01329050138573948</v>
+        <v>73.68253968253968</v>
       </c>
     </row>
     <row r="41">
@@ -1373,7 +1373,7 @@
         <v>0.3556666521824122</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.4959461033568031</v>
       </c>
       <c r="E41" t="n">
         <v>4555</v>
@@ -1382,7 +1382,7 @@
         <v>0.8216089466089466</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01304141185093566</v>
+        <v>72.3015873015873</v>
       </c>
     </row>
     <row r="42">
@@ -1396,7 +1396,7 @@
         <v>0.3541407355843782</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.4964571978195787</v>
       </c>
       <c r="E42" t="n">
         <v>4478</v>
@@ -1405,7 +1405,7 @@
         <v>0.8077200577200577</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01282095329714377</v>
+        <v>71.07936507936508</v>
       </c>
     </row>
     <row r="43">
@@ -1419,7 +1419,7 @@
         <v>0.3523337936808045</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.497199142789752</v>
       </c>
       <c r="E43" t="n">
         <v>4387</v>
@@ -1428,7 +1428,7 @@
         <v>0.7913059163059163</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01256041136993518</v>
+        <v>69.63492063492063</v>
       </c>
     </row>
     <row r="44">
@@ -1442,7 +1442,7 @@
         <v>0.3491762760880989</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.4981281830615387</v>
       </c>
       <c r="E44" t="n">
         <v>4276</v>
@@ -1451,7 +1451,7 @@
         <v>0.7712842712842712</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01224260748070272</v>
+        <v>67.87301587301587</v>
       </c>
     </row>
     <row r="45">
@@ -1465,7 +1465,7 @@
         <v>0.3462976821930812</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5003782309121513</v>
       </c>
       <c r="E45" t="n">
         <v>4135</v>
@@ -1474,7 +1474,7 @@
         <v>0.7458513708513709</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01183891064843446</v>
+        <v>65.63492063492063</v>
       </c>
     </row>
     <row r="46">
@@ -1488,7 +1488,7 @@
         <v>0.342102859671316</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.4666810476151583</v>
       </c>
       <c r="E46" t="n">
         <v>3830</v>
@@ -1497,7 +1497,7 @@
         <v>0.6908369408369408</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01096566572757049</v>
+        <v>60.79365079365079</v>
       </c>
     </row>
     <row r="47">
@@ -1511,7 +1511,7 @@
         <v>0.3406084746177055</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.3743476107988064</v>
       </c>
       <c r="E47" t="n">
         <v>3441</v>
@@ -1520,7 +1520,7 @@
         <v>0.6206709956709957</v>
       </c>
       <c r="G47" t="n">
-        <v>0.009851920566206282</v>
+        <v>54.61904761904762</v>
       </c>
     </row>
     <row r="48">
@@ -1534,7 +1534,7 @@
         <v>0.3289848520266396</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.2904281899469116</v>
       </c>
       <c r="E48" t="n">
         <v>2981</v>
@@ -1543,7 +1543,7 @@
         <v>0.5376984126984127</v>
       </c>
       <c r="G48" t="n">
-        <v>0.008534895439657344</v>
+        <v>47.31746031746032</v>
       </c>
     </row>
     <row r="49">
@@ -1557,7 +1557,7 @@
         <v>0.3113389263941818</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.241605468697636</v>
       </c>
       <c r="E49" t="n">
         <v>2032</v>
@@ -1566,7 +1566,7 @@
         <v>0.3665223665223665</v>
       </c>
       <c r="G49" t="n">
-        <v>0.005817815341624865</v>
+        <v>32.25396825396825</v>
       </c>
     </row>
     <row r="50">
@@ -1580,7 +1580,7 @@
         <v>0.3112738413939663</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.2491353158916866</v>
       </c>
       <c r="E50" t="n">
         <v>642</v>
@@ -1589,7 +1589,7 @@
         <v>0.1158008658008658</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001838108980966124</v>
+        <v>10.19047619047619</v>
       </c>
     </row>
     <row r="51">
@@ -1600,9 +1600,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
-        <v>0.5174820086094292</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>0</v>
       </c>

--- a/publication/analyses/outputs/supfigs/idpt_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/idpt_rmse-z_by_c-min.xlsx
@@ -473,10 +473,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="E2" t="n">
         <v>5104</v>
@@ -496,10 +496,10 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="E3" t="n">
         <v>5104</v>
@@ -519,10 +519,10 @@
         <v>0.5204081632653061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="E4" t="n">
         <v>5104</v>
@@ -542,10 +542,10 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="E5" t="n">
         <v>5104</v>
@@ -565,10 +565,10 @@
         <v>0.5408163265306123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="E6" t="n">
         <v>5104</v>
@@ -588,10 +588,10 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="E7" t="n">
         <v>5104</v>
@@ -611,10 +611,10 @@
         <v>0.5612244897959183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="E8" t="n">
         <v>5104</v>
@@ -634,10 +634,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="E9" t="n">
         <v>5104</v>
@@ -657,10 +657,10 @@
         <v>0.5816326530612245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3802022565435484</v>
+        <v>0.3802022503362134</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5174820086094292</v>
+        <v>0.5174819885839491</v>
       </c>
       <c r="E10" t="n">
         <v>5104</v>
@@ -680,10 +680,10 @@
         <v>0.5918367346938775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.380173048799206</v>
+        <v>0.3801730423813415</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5174124598577119</v>
+        <v>0.5174124395414106</v>
       </c>
       <c r="E11" t="n">
         <v>5103</v>
@@ -703,10 +703,10 @@
         <v>0.6020408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3792869748338641</v>
+        <v>0.3792869676016851</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5161807417094764</v>
+        <v>0.5161807202840867</v>
       </c>
       <c r="E12" t="n">
         <v>5101</v>
@@ -726,10 +726,10 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3792869748338641</v>
+        <v>0.3792869676016851</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5161807417094764</v>
+        <v>0.5161807202840867</v>
       </c>
       <c r="E13" t="n">
         <v>5101</v>
@@ -749,10 +749,10 @@
         <v>0.6224489795918368</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3792869748338641</v>
+        <v>0.3792869676016851</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5161807417094764</v>
+        <v>0.5161807202840867</v>
       </c>
       <c r="E14" t="n">
         <v>5101</v>
@@ -772,10 +772,10 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3792869748338641</v>
+        <v>0.3792869676016851</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5161807417094764</v>
+        <v>0.5161807202840867</v>
       </c>
       <c r="E15" t="n">
         <v>5101</v>
@@ -795,10 +795,10 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3792869748338641</v>
+        <v>0.3792869676016851</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5161807417094764</v>
+        <v>0.5161807202840867</v>
       </c>
       <c r="E16" t="n">
         <v>5101</v>
@@ -818,10 +818,10 @@
         <v>0.6530612244897959</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3792869748338641</v>
+        <v>0.3792869676016851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5161807417094764</v>
+        <v>0.5161807202840867</v>
       </c>
       <c r="E17" t="n">
         <v>5101</v>
@@ -841,10 +841,10 @@
         <v>0.6632653061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3786009627302689</v>
+        <v>0.3786009550974813</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5152274224425172</v>
+        <v>0.5152274005040632</v>
       </c>
       <c r="E18" t="n">
         <v>5098</v>
@@ -864,10 +864,10 @@
         <v>0.673469387755102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3786009627302689</v>
+        <v>0.3786009550974813</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5152274224425172</v>
+        <v>0.5152274005040632</v>
       </c>
       <c r="E19" t="n">
         <v>5098</v>
@@ -887,10 +887,10 @@
         <v>0.6836734693877551</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3778264268548475</v>
+        <v>0.3778264190784545</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5141847639893176</v>
+        <v>0.5141847418892906</v>
       </c>
       <c r="E20" t="n">
         <v>5094</v>
@@ -910,10 +910,10 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3774440937474211</v>
+        <v>0.3774440845201218</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5136714286906973</v>
+        <v>0.5136714048828418</v>
       </c>
       <c r="E21" t="n">
         <v>5091</v>
@@ -933,10 +933,10 @@
         <v>0.7040816326530612</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3774247909609283</v>
+        <v>0.3774247814805226</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5135967960445158</v>
+        <v>0.5135967719682987</v>
       </c>
       <c r="E22" t="n">
         <v>5088</v>
@@ -956,10 +956,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3774698822524733</v>
+        <v>0.377469872815632</v>
       </c>
       <c r="D23" t="n">
-        <v>0.513614710902777</v>
+        <v>0.5136146868938403</v>
       </c>
       <c r="E23" t="n">
         <v>5086</v>
@@ -979,10 +979,10 @@
         <v>0.7244897959183674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3774156515250173</v>
+        <v>0.3774156423317995</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5134998964503081</v>
+        <v>0.5134998727550497</v>
       </c>
       <c r="E24" t="n">
         <v>5083</v>
@@ -1002,10 +1002,10 @@
         <v>0.7346938775510203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3769494246085013</v>
+        <v>0.3769494187548235</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5129417063919948</v>
+        <v>0.5129416858558128</v>
       </c>
       <c r="E25" t="n">
         <v>5077</v>
@@ -1025,10 +1025,10 @@
         <v>0.7448979591836735</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3762563412657434</v>
+        <v>0.3762563344285795</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5121013756995278</v>
+        <v>0.5121013542493257</v>
       </c>
       <c r="E26" t="n">
         <v>5071</v>
@@ -1048,10 +1048,10 @@
         <v>0.7551020408163265</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3762721413407292</v>
+        <v>0.3762721303690099</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5118789027780003</v>
+        <v>0.511878875299507</v>
       </c>
       <c r="E27" t="n">
         <v>5060</v>
@@ -1071,10 +1071,10 @@
         <v>0.7653061224489796</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3738655405574646</v>
+        <v>0.3738655239303734</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5091293873233976</v>
+        <v>0.5091293539403831</v>
       </c>
       <c r="E28" t="n">
         <v>5047</v>
@@ -1094,10 +1094,10 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3736297713153195</v>
+        <v>0.3736297534252899</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5088898849734458</v>
+        <v>0.5088898505920566</v>
       </c>
       <c r="E29" t="n">
         <v>5043</v>
@@ -1117,10 +1117,10 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3722937492506164</v>
+        <v>0.3722937365536146</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5076022467249167</v>
+        <v>0.5076022178563127</v>
       </c>
       <c r="E30" t="n">
         <v>5027</v>
@@ -1140,10 +1140,10 @@
         <v>0.7959183673469388</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3714874115302282</v>
+        <v>0.3714874030258302</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5069011502526382</v>
+        <v>0.5069011269401752</v>
       </c>
       <c r="E31" t="n">
         <v>5009</v>
@@ -1163,10 +1163,10 @@
         <v>0.8061224489795917</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3711444926008454</v>
+        <v>0.3711444990523704</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5062890186272081</v>
+        <v>0.5062890126068025</v>
       </c>
       <c r="E32" t="n">
         <v>4979</v>
@@ -1186,10 +1186,10 @@
         <v>0.8163265306122449</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3697392001478965</v>
+        <v>0.3697391805952631</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504221301073956</v>
+        <v>0.5042212637921049</v>
       </c>
       <c r="E33" t="n">
         <v>4951</v>
@@ -1209,10 +1209,10 @@
         <v>0.8265306122448979</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3693493175752633</v>
+        <v>0.3693492893978667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5036122993922157</v>
+        <v>0.5036122550091485</v>
       </c>
       <c r="E34" t="n">
         <v>4925</v>
@@ -1232,10 +1232,10 @@
         <v>0.8367346938775511</v>
       </c>
       <c r="C35" t="n">
-        <v>0.367323178476183</v>
+        <v>0.3673231344974713</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5016961756989567</v>
+        <v>0.501696119787543</v>
       </c>
       <c r="E35" t="n">
         <v>4888</v>
@@ -1255,10 +1255,10 @@
         <v>0.846938775510204</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3656661090295736</v>
+        <v>0.3656660689772429</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5001333506558113</v>
+        <v>0.5001332981127559</v>
       </c>
       <c r="E36" t="n">
         <v>4850</v>
@@ -1278,10 +1278,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3639751759082663</v>
+        <v>0.3639751170521827</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4987946814064388</v>
+        <v>0.4987946160823328</v>
       </c>
       <c r="E37" t="n">
         <v>4802</v>
@@ -1301,10 +1301,10 @@
         <v>0.8673469387755102</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3619806647227288</v>
+        <v>0.3619805928916451</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4974823021793375</v>
+        <v>0.4974822343706503</v>
       </c>
       <c r="E38" t="n">
         <v>4756</v>
@@ -1324,10 +1324,10 @@
         <v>0.8775510204081632</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3594754602026789</v>
+        <v>0.3594754097136062</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4962179496825814</v>
+        <v>0.4962178985423809</v>
       </c>
       <c r="E39" t="n">
         <v>4692</v>
@@ -1347,10 +1347,10 @@
         <v>0.8877551020408163</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3595740578198174</v>
+        <v>0.3595740045097794</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4968859731646126</v>
+        <v>0.496885922859426</v>
       </c>
       <c r="E40" t="n">
         <v>4642</v>
@@ -1370,10 +1370,10 @@
         <v>0.8979591836734693</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3556666521824122</v>
+        <v>0.3556666210237723</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4959461033568031</v>
+        <v>0.4959460598274259</v>
       </c>
       <c r="E41" t="n">
         <v>4555</v>
@@ -1393,10 +1393,10 @@
         <v>0.9081632653061225</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3541407355843782</v>
+        <v>0.3541406969395646</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4964571978195787</v>
+        <v>0.4964571535426963</v>
       </c>
       <c r="E42" t="n">
         <v>4478</v>
@@ -1416,10 +1416,10 @@
         <v>0.9183673469387754</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3523337936808045</v>
+        <v>0.3523337742378211</v>
       </c>
       <c r="D43" t="n">
-        <v>0.497199142789752</v>
+        <v>0.4971991044354619</v>
       </c>
       <c r="E43" t="n">
         <v>4387</v>
@@ -1439,10 +1439,10 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3491762760880989</v>
+        <v>0.3491762830430619</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4981281830615387</v>
+        <v>0.4981281527514349</v>
       </c>
       <c r="E44" t="n">
         <v>4276</v>
@@ -1462,10 +1462,10 @@
         <v>0.9387755102040816</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3462976821930812</v>
+        <v>0.3462976876657561</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5003782309121513</v>
+        <v>0.50037820290311</v>
       </c>
       <c r="E45" t="n">
         <v>4135</v>
@@ -1485,10 +1485,10 @@
         <v>0.9489795918367346</v>
       </c>
       <c r="C46" t="n">
-        <v>0.342102859671316</v>
+        <v>0.3421028678342753</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4666810476151583</v>
+        <v>0.4666810368838383</v>
       </c>
       <c r="E46" t="n">
         <v>3830</v>
@@ -1508,10 +1508,10 @@
         <v>0.9591836734693877</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3406084746177055</v>
+        <v>0.340608508964833</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3743476107988064</v>
+        <v>0.3743476203683286</v>
       </c>
       <c r="E47" t="n">
         <v>3441</v>
@@ -1531,10 +1531,10 @@
         <v>0.9693877551020408</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3289848520266396</v>
+        <v>0.328984825360899</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2904281899469116</v>
+        <v>0.2904281699582166</v>
       </c>
       <c r="E48" t="n">
         <v>2981</v>
@@ -1554,10 +1554,10 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3113389263941818</v>
+        <v>0.3113389920772286</v>
       </c>
       <c r="D49" t="n">
-        <v>0.241605468697636</v>
+        <v>0.2416054544306667</v>
       </c>
       <c r="E49" t="n">
         <v>2032</v>
@@ -1577,10 +1577,10 @@
         <v>0.9897959183673469</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3112738413939663</v>
+        <v>0.3112738090920811</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2491353158916866</v>
+        <v>0.2491354006790326</v>
       </c>
       <c r="E50" t="n">
         <v>642</v>

--- a/publication/analyses/outputs/supfigs/idpt_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/idpt_rmse-z_by_c-min.xlsx
@@ -473,10 +473,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="E2" t="n">
         <v>5104</v>
@@ -496,10 +496,10 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="E3" t="n">
         <v>5104</v>
@@ -519,10 +519,10 @@
         <v>0.5204081632653061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="E4" t="n">
         <v>5104</v>
@@ -542,10 +542,10 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="E5" t="n">
         <v>5104</v>
@@ -565,10 +565,10 @@
         <v>0.5408163265306123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="E6" t="n">
         <v>5104</v>
@@ -588,10 +588,10 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="E7" t="n">
         <v>5104</v>
@@ -611,10 +611,10 @@
         <v>0.5612244897959183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="E8" t="n">
         <v>5104</v>
@@ -634,10 +634,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="E9" t="n">
         <v>5104</v>
@@ -657,10 +657,10 @@
         <v>0.5816326530612245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3802022503362134</v>
+        <v>0.3802022542744052</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5174819885839491</v>
+        <v>0.5174820007130608</v>
       </c>
       <c r="E10" t="n">
         <v>5104</v>
@@ -680,10 +680,10 @@
         <v>0.5918367346938775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3801730423813415</v>
+        <v>0.3801730462241475</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5174124395414106</v>
+        <v>0.5174124515457635</v>
       </c>
       <c r="E11" t="n">
         <v>5103</v>
@@ -703,10 +703,10 @@
         <v>0.6020408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3792869676016851</v>
+        <v>0.3792869710755458</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5161807202840867</v>
+        <v>0.5161807318448842</v>
       </c>
       <c r="E12" t="n">
         <v>5101</v>
@@ -726,10 +726,10 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3792869676016851</v>
+        <v>0.3792869710755458</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5161807202840867</v>
+        <v>0.5161807318448842</v>
       </c>
       <c r="E13" t="n">
         <v>5101</v>
@@ -749,10 +749,10 @@
         <v>0.6224489795918368</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3792869676016851</v>
+        <v>0.3792869710755458</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5161807202840867</v>
+        <v>0.5161807318448842</v>
       </c>
       <c r="E14" t="n">
         <v>5101</v>
@@ -772,10 +772,10 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3792869676016851</v>
+        <v>0.3792869710755458</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5161807202840867</v>
+        <v>0.5161807318448842</v>
       </c>
       <c r="E15" t="n">
         <v>5101</v>
@@ -795,10 +795,10 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3792869676016851</v>
+        <v>0.3792869710755458</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5161807202840867</v>
+        <v>0.5161807318448842</v>
       </c>
       <c r="E16" t="n">
         <v>5101</v>
@@ -818,10 +818,10 @@
         <v>0.6530612244897959</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3792869676016851</v>
+        <v>0.3792869710755458</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5161807202840867</v>
+        <v>0.5161807318448842</v>
       </c>
       <c r="E17" t="n">
         <v>5101</v>
@@ -841,10 +841,10 @@
         <v>0.6632653061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3786009550974813</v>
+        <v>0.3786009583887144</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5152274005040632</v>
+        <v>0.5152274118828775</v>
       </c>
       <c r="E18" t="n">
         <v>5098</v>
@@ -864,10 +864,10 @@
         <v>0.673469387755102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3786009550974813</v>
+        <v>0.3786009583887144</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5152274005040632</v>
+        <v>0.5152274118828775</v>
       </c>
       <c r="E19" t="n">
         <v>5098</v>
@@ -887,10 +887,10 @@
         <v>0.6836734693877551</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3778264190784545</v>
+        <v>0.3778264223030073</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5141847418892906</v>
+        <v>0.5141847532529995</v>
       </c>
       <c r="E20" t="n">
         <v>5094</v>
@@ -910,10 +910,10 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3774440845201218</v>
+        <v>0.377444087088331</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5136714048828418</v>
+        <v>0.5136714155080478</v>
       </c>
       <c r="E21" t="n">
         <v>5091</v>
@@ -933,10 +933,10 @@
         <v>0.7040816326530612</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3774247814805226</v>
+        <v>0.3774247839338935</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5135967719682987</v>
+        <v>0.5135967824874909</v>
       </c>
       <c r="E22" t="n">
         <v>5088</v>
@@ -956,10 +956,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.377469872815632</v>
+        <v>0.377469875288621</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5136146868938403</v>
+        <v>0.5136146974510686</v>
       </c>
       <c r="E23" t="n">
         <v>5086</v>
@@ -979,10 +979,10 @@
         <v>0.7244897959183674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3774156423317995</v>
+        <v>0.3774156449143481</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5134998727550497</v>
+        <v>0.5134998834709356</v>
       </c>
       <c r="E24" t="n">
         <v>5083</v>
@@ -1002,10 +1002,10 @@
         <v>0.7346938775510203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3769494187548235</v>
+        <v>0.3769494173339382</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5129416858558128</v>
+        <v>0.5129416927898437</v>
       </c>
       <c r="E25" t="n">
         <v>5077</v>
@@ -1025,10 +1025,10 @@
         <v>0.7448979591836735</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3762563344285795</v>
+        <v>0.3762563325623492</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5121013542493257</v>
+        <v>0.5121013608155164</v>
       </c>
       <c r="E26" t="n">
         <v>5071</v>
@@ -1048,10 +1048,10 @@
         <v>0.7551020408163265</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3762721303690099</v>
+        <v>0.376272131354079</v>
       </c>
       <c r="D27" t="n">
-        <v>0.511878875299507</v>
+        <v>0.5118788866137934</v>
       </c>
       <c r="E27" t="n">
         <v>5060</v>
@@ -1071,10 +1071,10 @@
         <v>0.7653061224489796</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3738655239303734</v>
+        <v>0.3738655269973694</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5091293539403831</v>
+        <v>0.5091293685602675</v>
       </c>
       <c r="E28" t="n">
         <v>5047</v>
@@ -1094,10 +1094,10 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3736297534252899</v>
+        <v>0.3736297559207812</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5088898505920566</v>
+        <v>0.5088898647978967</v>
       </c>
       <c r="E29" t="n">
         <v>5043</v>
@@ -1117,10 +1117,10 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3722937365536146</v>
+        <v>0.3722937344130707</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5076022178563127</v>
+        <v>0.5076022279852221</v>
       </c>
       <c r="E30" t="n">
         <v>5027</v>
@@ -1140,10 +1140,10 @@
         <v>0.7959183673469388</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3714874030258302</v>
+        <v>0.3714873957254503</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5069011269401752</v>
+        <v>0.5069011314553544</v>
       </c>
       <c r="E31" t="n">
         <v>5009</v>
@@ -1163,10 +1163,10 @@
         <v>0.8061224489795917</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3711444990523704</v>
+        <v>0.3711444747059628</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5062890126068025</v>
+        <v>0.5062889988841928</v>
       </c>
       <c r="E32" t="n">
         <v>4979</v>
@@ -1186,10 +1186,10 @@
         <v>0.8163265306122449</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3697391805952631</v>
+        <v>0.3697391831798283</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5042212637921049</v>
+        <v>0.504221282128544</v>
       </c>
       <c r="E33" t="n">
         <v>4951</v>
@@ -1209,10 +1209,10 @@
         <v>0.8265306122448979</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3693492893978667</v>
+        <v>0.3693492994359847</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5036122550091485</v>
+        <v>0.503612280074464</v>
       </c>
       <c r="E34" t="n">
         <v>4925</v>
@@ -1232,10 +1232,10 @@
         <v>0.8367346938775511</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3673231344974713</v>
+        <v>0.3673231590000642</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501696119787543</v>
+        <v>0.5016961558392447</v>
       </c>
       <c r="E35" t="n">
         <v>4888</v>
@@ -1255,10 +1255,10 @@
         <v>0.846938775510204</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3656660689772429</v>
+        <v>0.3656660883604334</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5001332981127559</v>
+        <v>0.5001333301399483</v>
       </c>
       <c r="E36" t="n">
         <v>4850</v>
@@ -1278,10 +1278,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3639751170521827</v>
+        <v>0.3639751522050447</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4987946160823328</v>
+        <v>0.4987946595137375</v>
       </c>
       <c r="E37" t="n">
         <v>4802</v>
@@ -1301,10 +1301,10 @@
         <v>0.8673469387755102</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3619805928916451</v>
+        <v>0.3619806370640381</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4974822343706503</v>
+        <v>0.4974822793667069</v>
       </c>
       <c r="E38" t="n">
         <v>4756</v>
@@ -1324,10 +1324,10 @@
         <v>0.8775510204081632</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3594754097136062</v>
+        <v>0.3594754315264209</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4962178985423809</v>
+        <v>0.4962179268526061</v>
       </c>
       <c r="E39" t="n">
         <v>4692</v>
@@ -1347,10 +1347,10 @@
         <v>0.8877551020408163</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3595740045097794</v>
+        <v>0.3595740366046051</v>
       </c>
       <c r="D40" t="n">
-        <v>0.496885922859426</v>
+        <v>0.4968859556809926</v>
       </c>
       <c r="E40" t="n">
         <v>4642</v>
@@ -1370,10 +1370,10 @@
         <v>0.8979591836734693</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3556666210237723</v>
+        <v>0.3556666284105799</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4959460598274259</v>
+        <v>0.4959460843533173</v>
       </c>
       <c r="E41" t="n">
         <v>4555</v>
@@ -1393,10 +1393,10 @@
         <v>0.9081632653061225</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3541406969395646</v>
+        <v>0.3541407140071303</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4964571535426963</v>
+        <v>0.4964571809587434</v>
       </c>
       <c r="E42" t="n">
         <v>4478</v>
@@ -1416,10 +1416,10 @@
         <v>0.9183673469387754</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3523337742378211</v>
+        <v>0.3523337772860499</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4971991044354619</v>
+        <v>0.4971991275131908</v>
       </c>
       <c r="E43" t="n">
         <v>4387</v>
@@ -1439,10 +1439,10 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3491762830430619</v>
+        <v>0.3491762760442111</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4981281527514349</v>
+        <v>0.498128175523703</v>
       </c>
       <c r="E44" t="n">
         <v>4276</v>
@@ -1462,10 +1462,10 @@
         <v>0.9387755102040816</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3462976876657561</v>
+        <v>0.3462976908405967</v>
       </c>
       <c r="D45" t="n">
-        <v>0.50037820290311</v>
+        <v>0.5003782284912004</v>
       </c>
       <c r="E45" t="n">
         <v>4135</v>
@@ -1485,10 +1485,10 @@
         <v>0.9489795918367346</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3421028678342753</v>
+        <v>0.3421028790132107</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4666810368838383</v>
+        <v>0.4666810536935628</v>
       </c>
       <c r="E46" t="n">
         <v>3830</v>
@@ -1508,10 +1508,10 @@
         <v>0.9591836734693877</v>
       </c>
       <c r="C47" t="n">
-        <v>0.340608508964833</v>
+        <v>0.3406084988738363</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3743476203683286</v>
+        <v>0.3743476134572277</v>
       </c>
       <c r="E47" t="n">
         <v>3441</v>
@@ -1531,10 +1531,10 @@
         <v>0.9693877551020408</v>
       </c>
       <c r="C48" t="n">
-        <v>0.328984825360899</v>
+        <v>0.3289849011557407</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2904281699582166</v>
+        <v>0.2904281887132842</v>
       </c>
       <c r="E48" t="n">
         <v>2981</v>
@@ -1554,10 +1554,10 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3113389920772286</v>
+        <v>0.3113388944924927</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2416054544306667</v>
+        <v>0.2416054327091892</v>
       </c>
       <c r="E49" t="n">
         <v>2032</v>
@@ -1577,10 +1577,10 @@
         <v>0.9897959183673469</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3112738090920811</v>
+        <v>0.3112738062354039</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2491354006790326</v>
+        <v>0.2491352890256509</v>
       </c>
       <c r="E50" t="n">
         <v>642</v>

--- a/publication/analyses/outputs/supfigs/idpt_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/idpt_rmse-z_by_c-min.xlsx
@@ -473,10 +473,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="E2" t="n">
         <v>5104</v>
@@ -496,10 +496,10 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="E3" t="n">
         <v>5104</v>
@@ -519,10 +519,10 @@
         <v>0.5204081632653061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="E4" t="n">
         <v>5104</v>
@@ -542,10 +542,10 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="E5" t="n">
         <v>5104</v>
@@ -565,10 +565,10 @@
         <v>0.5408163265306123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="E6" t="n">
         <v>5104</v>
@@ -588,10 +588,10 @@
         <v>0.5510204081632653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="E7" t="n">
         <v>5104</v>
@@ -611,10 +611,10 @@
         <v>0.5612244897959183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="E8" t="n">
         <v>5104</v>
@@ -634,10 +634,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="E9" t="n">
         <v>5104</v>
@@ -657,10 +657,10 @@
         <v>0.5816326530612245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3802022542744052</v>
+        <v>0.3802022553236324</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5174820007130608</v>
+        <v>0.5174820055595092</v>
       </c>
       <c r="E10" t="n">
         <v>5104</v>
@@ -680,10 +680,10 @@
         <v>0.5918367346938775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3801730462241475</v>
+        <v>0.3801730472712544</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5174124515457635</v>
+        <v>0.5174124563909507</v>
       </c>
       <c r="E11" t="n">
         <v>5103</v>
@@ -703,10 +703,10 @@
         <v>0.6020408163265306</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3792869710755458</v>
+        <v>0.3792869721144517</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5161807318448842</v>
+        <v>0.5161807366929364</v>
       </c>
       <c r="E12" t="n">
         <v>5101</v>
@@ -726,10 +726,10 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3792869710755458</v>
+        <v>0.3792869721144517</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5161807318448842</v>
+        <v>0.5161807366929364</v>
       </c>
       <c r="E13" t="n">
         <v>5101</v>
@@ -749,10 +749,10 @@
         <v>0.6224489795918368</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3792869710755458</v>
+        <v>0.3792869721144517</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5161807318448842</v>
+        <v>0.5161807366929364</v>
       </c>
       <c r="E14" t="n">
         <v>5101</v>
@@ -772,10 +772,10 @@
         <v>0.6326530612244898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3792869710755458</v>
+        <v>0.3792869721144517</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5161807318448842</v>
+        <v>0.5161807366929364</v>
       </c>
       <c r="E15" t="n">
         <v>5101</v>
@@ -795,10 +795,10 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3792869710755458</v>
+        <v>0.3792869721144517</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5161807318448842</v>
+        <v>0.5161807366929364</v>
       </c>
       <c r="E16" t="n">
         <v>5101</v>
@@ -818,10 +818,10 @@
         <v>0.6530612244897959</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3792869710755458</v>
+        <v>0.3792869721144517</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5161807318448842</v>
+        <v>0.5161807366929364</v>
       </c>
       <c r="E17" t="n">
         <v>5101</v>
@@ -841,10 +841,10 @@
         <v>0.6632653061224489</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3786009583887144</v>
+        <v>0.3786009594235633</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5152274118828775</v>
+        <v>0.5152274167380889</v>
       </c>
       <c r="E18" t="n">
         <v>5098</v>
@@ -864,10 +864,10 @@
         <v>0.673469387755102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3786009583887144</v>
+        <v>0.3786009594235633</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5152274118828775</v>
+        <v>0.5152274167380889</v>
       </c>
       <c r="E19" t="n">
         <v>5098</v>
@@ -887,10 +887,10 @@
         <v>0.6836734693877551</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3778264223030073</v>
+        <v>0.3778264233363751</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5141847532529995</v>
+        <v>0.5141847581208299</v>
       </c>
       <c r="E20" t="n">
         <v>5094</v>
@@ -910,10 +910,10 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>0.377444087088331</v>
+        <v>0.3774440881071068</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5136714155080478</v>
+        <v>0.5136714203667939</v>
       </c>
       <c r="E21" t="n">
         <v>5091</v>
@@ -933,10 +933,10 @@
         <v>0.7040816326530612</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3774247839338935</v>
+        <v>0.3774247849501141</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5135967824874909</v>
+        <v>0.5135967873472752</v>
       </c>
       <c r="E22" t="n">
         <v>5088</v>
@@ -956,10 +956,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.377469875288621</v>
+        <v>0.3774698763052797</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5136146974510686</v>
+        <v>0.5136147023133585</v>
       </c>
       <c r="E23" t="n">
         <v>5086</v>
@@ -979,10 +979,10 @@
         <v>0.7244897959183674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3774156449143481</v>
+        <v>0.3774156459334394</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5134998834709356</v>
+        <v>0.5134998883405154</v>
       </c>
       <c r="E24" t="n">
         <v>5083</v>
@@ -1002,10 +1002,10 @@
         <v>0.7346938775510203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3769494173339382</v>
+        <v>0.3769494214476503</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5129416927898437</v>
+        <v>0.5129417006226601</v>
       </c>
       <c r="E25" t="n">
         <v>5077</v>
@@ -1025,10 +1025,10 @@
         <v>0.7448979591836735</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3762563325623492</v>
+        <v>0.3762563366661499</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5121013608155164</v>
+        <v>0.5121013686618447</v>
       </c>
       <c r="E26" t="n">
         <v>5071</v>
@@ -1048,10 +1048,10 @@
         <v>0.7551020408163265</v>
       </c>
       <c r="C27" t="n">
-        <v>0.376272131354079</v>
+        <v>0.3762721370495707</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5118788866137934</v>
+        <v>0.5118788959843477</v>
       </c>
       <c r="E27" t="n">
         <v>5060</v>
@@ -1071,10 +1071,10 @@
         <v>0.7653061224489796</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3738655269973694</v>
+        <v>0.3738655326687529</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5091293685602675</v>
+        <v>0.5091293779894061</v>
       </c>
       <c r="E28" t="n">
         <v>5047</v>
@@ -1094,10 +1094,10 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3736297559207812</v>
+        <v>0.3736297615794534</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5088898647978967</v>
+        <v>0.5088898742293346</v>
       </c>
       <c r="E29" t="n">
         <v>5043</v>
@@ -1117,10 +1117,10 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3722937344130707</v>
+        <v>0.3722937437794621</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5076022279852221</v>
+        <v>0.5076022408779326</v>
       </c>
       <c r="E30" t="n">
         <v>5027</v>
@@ -1140,10 +1140,10 @@
         <v>0.7959183673469388</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3714873957254503</v>
+        <v>0.3714874061391085</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5069011314553544</v>
+        <v>0.5069011451719982</v>
       </c>
       <c r="E31" t="n">
         <v>5009</v>
@@ -1163,10 +1163,10 @@
         <v>0.8061224489795917</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3711444747059628</v>
+        <v>0.3711444905184629</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5062889988841928</v>
+        <v>0.5062890173072759</v>
       </c>
       <c r="E32" t="n">
         <v>4979</v>
@@ -1186,10 +1186,10 @@
         <v>0.8163265306122449</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3697391831798283</v>
+        <v>0.3697392049123152</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504221282128544</v>
+        <v>0.5042213057204228</v>
       </c>
       <c r="E33" t="n">
         <v>4951</v>
@@ -1209,10 +1209,10 @@
         <v>0.8265306122448979</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3693492994359847</v>
+        <v>0.3693493225927577</v>
       </c>
       <c r="D34" t="n">
-        <v>0.503612280074464</v>
+        <v>0.5036123046384652</v>
       </c>
       <c r="E34" t="n">
         <v>4925</v>
@@ -1232,10 +1232,10 @@
         <v>0.8367346938775511</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3673231590000642</v>
+        <v>0.3673231764728787</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5016961558392447</v>
+        <v>0.501696174436397</v>
       </c>
       <c r="E35" t="n">
         <v>4888</v>
@@ -1255,10 +1255,10 @@
         <v>0.846938775510204</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3656660883604334</v>
+        <v>0.3656661188002087</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5001333301399483</v>
+        <v>0.5001333572796454</v>
       </c>
       <c r="E36" t="n">
         <v>4850</v>
@@ -1278,10 +1278,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3639751522050447</v>
+        <v>0.3639751944348112</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4987946595137375</v>
+        <v>0.4987946933037506</v>
       </c>
       <c r="E37" t="n">
         <v>4802</v>
@@ -1301,10 +1301,10 @@
         <v>0.8673469387755102</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3619806370640381</v>
+        <v>0.3619806783713478</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4974822793667069</v>
+        <v>0.4974823122704591</v>
       </c>
       <c r="E38" t="n">
         <v>4756</v>
@@ -1324,10 +1324,10 @@
         <v>0.8775510204081632</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3594754315264209</v>
+        <v>0.359475484181443</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4962179268526061</v>
+        <v>0.4962179647250188</v>
       </c>
       <c r="E39" t="n">
         <v>4692</v>
@@ -1347,10 +1347,10 @@
         <v>0.8877551020408163</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3595740366046051</v>
+        <v>0.3595740793799462</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4968859556809926</v>
+        <v>0.4968859859904749</v>
       </c>
       <c r="E40" t="n">
         <v>4642</v>
@@ -1370,10 +1370,10 @@
         <v>0.8979591836734693</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3556666284105799</v>
+        <v>0.3556666911141511</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4959460843533173</v>
+        <v>0.4959461219269258</v>
       </c>
       <c r="E41" t="n">
         <v>4555</v>
@@ -1393,10 +1393,10 @@
         <v>0.9081632653061225</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3541407140071303</v>
+        <v>0.354140777384354</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4964571809587434</v>
+        <v>0.4964572181689493</v>
       </c>
       <c r="E42" t="n">
         <v>4478</v>
@@ -1416,10 +1416,10 @@
         <v>0.9183673469387754</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3523337772860499</v>
+        <v>0.3523338388936727</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4971991275131908</v>
+        <v>0.4971991587578733</v>
       </c>
       <c r="E43" t="n">
         <v>4387</v>
@@ -1439,10 +1439,10 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3491762760442111</v>
+        <v>0.3491763406010674</v>
       </c>
       <c r="D44" t="n">
-        <v>0.498128175523703</v>
+        <v>0.4981282011732776</v>
       </c>
       <c r="E44" t="n">
         <v>4276</v>
@@ -1462,10 +1462,10 @@
         <v>0.9387755102040816</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3462976908405967</v>
+        <v>0.3462977309887041</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5003782284912004</v>
+        <v>0.5003782413218008</v>
       </c>
       <c r="E45" t="n">
         <v>4135</v>
@@ -1485,10 +1485,10 @@
         <v>0.9489795918367346</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3421028790132107</v>
+        <v>0.3421028772149934</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4666810536935628</v>
+        <v>0.46668104412956</v>
       </c>
       <c r="E46" t="n">
         <v>3830</v>
@@ -1508,10 +1508,10 @@
         <v>0.9591836734693877</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3406084988738363</v>
+        <v>0.3406084759203462</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3743476134572277</v>
+        <v>0.374347594240466</v>
       </c>
       <c r="E47" t="n">
         <v>3441</v>
@@ -1531,10 +1531,10 @@
         <v>0.9693877551020408</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3289849011557407</v>
+        <v>0.3289848081788866</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2904281887132842</v>
+        <v>0.2904281324922827</v>
       </c>
       <c r="E48" t="n">
         <v>2981</v>
@@ -1554,10 +1554,10 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3113388944924927</v>
+        <v>0.3113387525875472</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2416054327091892</v>
+        <v>0.2416053466857582</v>
       </c>
       <c r="E49" t="n">
         <v>2032</v>
@@ -1577,10 +1577,10 @@
         <v>0.9897959183673469</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3112738062354039</v>
+        <v>0.311273841388571</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2491352890256509</v>
+        <v>0.249135322395481</v>
       </c>
       <c r="E50" t="n">
         <v>642</v>
